--- a/res/temp_hazard_vs_tgjc_xjxm_df.xlsx
+++ b/res/temp_hazard_vs_tgjc_xjxm_df.xlsx
@@ -790,7 +790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,70 +806,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>order_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>oh_order_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>oh_order_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>post_status_id</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>post_status_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>hazard_factor_id</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>is_necessary</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hospital_id</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>his_org_id</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>his_creater_id</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>his_creater_name</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>his_create_time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>his_updater_id</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>his_updater_name</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>his_update_time</t>
         </is>
@@ -879,385 +884,392 @@
       <c r="A2" t="n">
         <v>-1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>238</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>咽喉镜检查</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>应急</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>29</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>10033001</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>10033</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>44875.71520421725</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>44875.71520421725</v>
+      <c r="K2" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>44883.72996366923</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>44883.72996366923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>238</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>咽喉镜检查</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>应急</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>30</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>10033001</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>10033</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>44875.71520421725</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>44875.71520421725</v>
+      <c r="K3" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>44883.72996366923</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>44883.72996366923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-1</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>238</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>咽喉镜检查</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>应急</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>31</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>10033001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>10033</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>44875.71520421725</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>44875.71520421725</v>
+      <c r="K4" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>44883.72996366923</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>44883.72996366923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>238</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>咽喉镜检查</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>应急</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>32</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>10033001</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>10033</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>44875.71520421725</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>44875.71520421725</v>
+      <c r="K5" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>44883.72996366923</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>44883.72996366923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>-1</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>238</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>咽喉镜检查</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>应急</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>33</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>10033001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>10033</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>44875.71520421725</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>44875.71520421725</v>
+      <c r="K6" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>44883.72996366923</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>44883.72996366923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-1</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>238</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>咽喉镜检查</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>应急</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>55</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>10033001</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>10033</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>44875.71520421725</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>44875.71520421725</v>
+      <c r="K7" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>44883.72996366923</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>44883.72996366923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-1</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>220</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>荧光素染色检查</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>4</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>应急</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>68</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>10033001</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>10033</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>44875.71520421725</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4.796260644137207e+18</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>众阳健康管理员</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>44875.71520421725</v>
+      <c r="K8" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>44883.72996366923</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>44883.72996366923</v>
       </c>
     </row>
   </sheetData>
